--- a/data/trans_orig/P16A06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E8A8279-B1D7-4C19-8C0F-D79C013C286D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8726F0C-E502-4338-884A-FBB04764E164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0BD103A7-C75A-4FC4-BFED-3E48914BCA72}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A58E658-4575-4E6C-AA96-DAEBA7653C10}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="589">
   <si>
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,1720 +80,1732 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>3,81%</t>
+    <t>3,91%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,95%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>96,3%</t>
   </si>
   <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>2,14%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>96,75%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
   </si>
   <si>
     <t>96,23%</t>
   </si>
   <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>4,51%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>94,77%</t>
   </si>
   <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>95,49%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
 </sst>
 </file>
@@ -2205,7 +2217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90563419-D6D0-48ED-9B20-2BDB6C1A9D86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41AFB3D-B136-4128-A1AC-F77BFADA164D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2675,7 +2687,7 @@
         <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2702,13 @@
         <v>317974</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>332</v>
@@ -2705,13 +2717,13 @@
         <v>332358</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>641</v>
@@ -2720,13 +2732,13 @@
         <v>650332</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,7 +2794,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2794,13 +2806,13 @@
         <v>4394</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -2809,13 +2821,13 @@
         <v>11401</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2824,13 +2836,13 @@
         <v>15794</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2857,13 @@
         <v>354277</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>373</v>
@@ -2860,13 +2872,13 @@
         <v>360055</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>731</v>
@@ -2875,13 +2887,13 @@
         <v>714333</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,7 +2949,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2949,13 +2961,13 @@
         <v>4443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2964,13 +2976,13 @@
         <v>11497</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2979,13 +2991,13 @@
         <v>15939</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3012,13 @@
         <v>198865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -3122,10 +3134,10 @@
         <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3134,10 +3146,10 @@
         <v>9967</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>111</v>
@@ -3176,7 +3188,7 @@
         <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -3185,13 +3197,13 @@
         <v>538988</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,10 +3304,10 @@
         <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3322,13 @@
         <v>602616</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>597</v>
@@ -3325,13 +3337,13 @@
         <v>613856</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>1182</v>
@@ -3340,13 +3352,13 @@
         <v>1216472</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,7 +3414,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3414,13 +3426,13 @@
         <v>28839</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -3429,13 +3441,13 @@
         <v>47970</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>75</v>
@@ -3444,13 +3456,13 @@
         <v>76809</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,10 +3480,10 @@
         <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>700</v>
@@ -3480,13 +3492,13 @@
         <v>735541</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>1405</v>
@@ -3495,13 +3507,13 @@
         <v>1449479</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,7 +3629,7 @@
         <v>3146</v>
       </c>
       <c r="D29" s="7">
-        <v>3210601</v>
+        <v>3210602</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>163</v>
@@ -3647,7 +3659,7 @@
         <v>6307</v>
       </c>
       <c r="N29" s="7">
-        <v>6449126</v>
+        <v>6449127</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>169</v>
@@ -3668,7 +3680,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3698,7 +3710,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3736,7 +3748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AECA99-F65A-4542-AC00-8DADA2DA4BC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC88C5A-66D5-45F3-B0C6-5C91381A7612}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4003,7 +4015,7 @@
         <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -4012,13 +4024,13 @@
         <v>39983</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4027,10 +4039,10 @@
         <v>52121</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>182</v>
@@ -4051,10 +4063,10 @@
         <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -4063,13 +4075,13 @@
         <v>482748</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>909</v>
@@ -4078,13 +4090,13 @@
         <v>976137</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,10 +4167,10 @@
         <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4167,13 +4179,13 @@
         <v>8112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4182,13 +4194,13 @@
         <v>13091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4215,13 @@
         <v>318137</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>309</v>
@@ -4218,13 +4230,13 @@
         <v>332908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>622</v>
@@ -4233,13 +4245,13 @@
         <v>651045</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,7 +4307,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4307,13 +4319,13 @@
         <v>13791</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -4322,13 +4334,13 @@
         <v>44806</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -4337,13 +4349,13 @@
         <v>58597</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4370,13 @@
         <v>651209</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>575</v>
@@ -4373,13 +4385,13 @@
         <v>622497</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>1185</v>
@@ -4388,13 +4400,13 @@
         <v>1273707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,7 +4462,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4462,13 +4474,13 @@
         <v>5396</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4477,13 +4489,13 @@
         <v>38191</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -4492,13 +4504,13 @@
         <v>43587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4525,13 @@
         <v>207222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -4528,13 +4540,13 @@
         <v>181400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>367</v>
@@ -4543,13 +4555,13 @@
         <v>388622</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4629,13 @@
         <v>1996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -4632,13 +4644,13 @@
         <v>10080</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -4647,13 +4659,13 @@
         <v>12076</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4680,13 @@
         <v>271985</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -4683,13 +4695,13 @@
         <v>269060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M20" s="7">
         <v>518</v>
@@ -4698,13 +4710,13 @@
         <v>541045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4784,13 @@
         <v>8023</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -4787,13 +4799,13 @@
         <v>18409</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -4802,13 +4814,13 @@
         <v>26432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4835,13 @@
         <v>653733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H23" s="7">
         <v>619</v>
@@ -4838,13 +4850,13 @@
         <v>675444</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M23" s="7">
         <v>1229</v>
@@ -4853,13 +4865,13 @@
         <v>1329177</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,7 +4927,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4927,13 +4939,13 @@
         <v>23699</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -4942,13 +4954,13 @@
         <v>63379</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -4957,13 +4969,13 @@
         <v>87077</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,13 +4990,13 @@
         <v>752243</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H26" s="7">
         <v>698</v>
@@ -4993,13 +5005,13 @@
         <v>758141</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M26" s="7">
         <v>1392</v>
@@ -5008,13 +5020,13 @@
         <v>1510386</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5094,13 @@
         <v>70022</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H28" s="7">
         <v>205</v>
@@ -5097,13 +5109,13 @@
         <v>222959</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>88</v>
+        <v>294</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M28" s="7">
         <v>265</v>
@@ -5112,13 +5124,13 @@
         <v>292981</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,13 +5145,13 @@
         <v>3347919</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>3081</v>
@@ -5148,13 +5160,13 @@
         <v>3322200</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="M29" s="7">
         <v>6222</v>
@@ -5163,13 +5175,13 @@
         <v>6670119</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,7 +5261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F10D17-0CF8-4D31-A074-D1614EBE94A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CE1EAB-1B2B-4E77-BBBC-E080D5D83576}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5266,7 +5278,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5373,13 +5385,13 @@
         <v>6833</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -5388,13 +5400,13 @@
         <v>25319</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -5403,13 +5415,13 @@
         <v>32152</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5436,13 @@
         <v>286928</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>29</v>
+        <v>318</v>
       </c>
       <c r="H5" s="7">
         <v>254</v>
@@ -5439,13 +5451,13 @@
         <v>263384</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="M5" s="7">
         <v>514</v>
@@ -5454,13 +5466,13 @@
         <v>550312</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5540,13 @@
         <v>13496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5543,13 +5555,13 @@
         <v>36046</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -5558,13 +5570,13 @@
         <v>49542</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5591,13 @@
         <v>489079</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>60</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -5594,13 +5606,13 @@
         <v>487038</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>915</v>
@@ -5609,13 +5621,13 @@
         <v>976117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>82</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5695,13 @@
         <v>2186</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5698,13 +5710,13 @@
         <v>15495</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -5713,13 +5725,13 @@
         <v>17681</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>342</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5746,13 @@
         <v>316379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
@@ -5749,13 +5761,13 @@
         <v>320814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>650</v>
@@ -5764,13 +5776,13 @@
         <v>637193</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,7 +5838,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5838,13 +5850,13 @@
         <v>8729</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -5853,13 +5865,13 @@
         <v>36979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5868,13 +5880,13 @@
         <v>45709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5901,13 @@
         <v>361235</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>324</v>
@@ -5904,13 +5916,13 @@
         <v>350304</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>358</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
@@ -5919,13 +5931,13 @@
         <v>711538</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,7 +5993,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5996,10 +6008,10 @@
         <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>364</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -6008,13 +6020,13 @@
         <v>19215</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -6023,13 +6035,13 @@
         <v>26750</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>367</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,10 +6059,10 @@
         <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>59</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -6059,13 +6071,13 @@
         <v>199372</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>372</v>
+        <v>44</v>
       </c>
       <c r="M17" s="7">
         <v>409</v>
@@ -6074,13 +6086,13 @@
         <v>403058</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,10 +6193,10 @@
         <v>382</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6211,13 @@
         <v>252873</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H20" s="7">
         <v>235</v>
@@ -6214,13 +6226,13 @@
         <v>242815</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M20" s="7">
         <v>483</v>
@@ -6229,13 +6241,13 @@
         <v>495688</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>392</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>393</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6315,13 @@
         <v>32422</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -6318,13 +6330,13 @@
         <v>57715</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -6333,13 +6345,13 @@
         <v>90137</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,13 +6366,13 @@
         <v>624136</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H23" s="7">
         <v>595</v>
@@ -6369,13 +6381,13 @@
         <v>633579</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M23" s="7">
         <v>1145</v>
@@ -6384,13 +6396,13 @@
         <v>1257715</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,7 +6458,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6458,13 +6470,13 @@
         <v>8573</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -6473,13 +6485,13 @@
         <v>45412</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -6488,13 +6500,13 @@
         <v>53985</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,7 +6521,7 @@
         <v>770010</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>250</v>
+        <v>418</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>419</v>
@@ -6524,7 +6536,7 @@
         <v>780755</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>421</v>
@@ -6613,7 +6625,7 @@
         <v>90024</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>426</v>
@@ -6664,7 +6676,7 @@
         <v>3304326</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>434</v>
@@ -6780,7 +6792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB81F7B8-EAB4-4EF7-BDD7-2B665959C2AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF96B8F-38DA-47B5-9EEF-143E9FC03315}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6934,13 +6946,13 @@
         <v>28764</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,13 +6967,13 @@
         <v>250575</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H5" s="7">
         <v>499</v>
@@ -6970,13 +6982,13 @@
         <v>252362</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M5" s="7">
         <v>815</v>
@@ -6985,13 +6997,13 @@
         <v>502936</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>457</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>297</v>
+        <v>456</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>458</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7071,13 @@
         <v>26329</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>460</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -7074,13 +7086,13 @@
         <v>62817</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
@@ -7089,13 +7101,13 @@
         <v>89146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7122,13 @@
         <v>491898</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>470</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>625</v>
@@ -7125,13 +7137,13 @@
         <v>490399</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M8" s="7">
         <v>983</v>
@@ -7140,13 +7152,13 @@
         <v>982297</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,13 +7226,13 @@
         <v>19461</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -7229,13 +7241,13 @@
         <v>40859</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -7244,13 +7256,13 @@
         <v>60320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7277,13 @@
         <v>302259</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H11" s="7">
         <v>470</v>
@@ -7280,13 +7292,13 @@
         <v>332425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M11" s="7">
         <v>802</v>
@@ -7295,13 +7307,13 @@
         <v>634683</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,7 +7369,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7369,13 +7381,13 @@
         <v>20180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>492</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>494</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -7384,13 +7396,13 @@
         <v>38136</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -7399,13 +7411,13 @@
         <v>58316</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7420,13 +7432,13 @@
         <v>302060</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>502</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="H14" s="7">
         <v>534</v>
@@ -7435,13 +7447,13 @@
         <v>390064</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="M14" s="7">
         <v>805</v>
@@ -7450,13 +7462,13 @@
         <v>692124</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7512,7 +7524,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7524,13 +7536,13 @@
         <v>7297</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -7539,13 +7551,13 @@
         <v>24761</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -7554,13 +7566,13 @@
         <v>32058</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7575,13 +7587,13 @@
         <v>189451</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>432</v>
@@ -7605,13 +7617,13 @@
         <v>396593</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7834,13 +7846,13 @@
         <v>35784</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H22" s="7">
         <v>131</v>
@@ -7849,13 +7861,13 @@
         <v>89464</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M22" s="7">
         <v>168</v>
@@ -7864,13 +7876,13 @@
         <v>125248</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,13 +7897,13 @@
         <v>591970</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>440</v>
+        <v>549</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H23" s="7">
         <v>827</v>
@@ -7900,13 +7912,13 @@
         <v>714420</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M23" s="7">
         <v>1389</v>
@@ -7915,13 +7927,13 @@
         <v>1306390</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,7 +7989,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7989,13 +8001,13 @@
         <v>32374</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>242</v>
+        <v>557</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H25" s="7">
         <v>102</v>
@@ -8004,13 +8016,13 @@
         <v>76669</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -8019,13 +8031,13 @@
         <v>109043</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>559</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>309</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8040,13 +8052,13 @@
         <v>827054</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>249</v>
+        <v>565</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="H26" s="7">
         <v>958</v>
@@ -8055,13 +8067,13 @@
         <v>788362</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="M26" s="7">
         <v>1681</v>
@@ -8070,13 +8082,13 @@
         <v>1615416</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>565</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>316</v>
+        <v>571</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8144,13 +8156,13 @@
         <v>177114</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>569</v>
+        <v>355</v>
       </c>
       <c r="H28" s="7">
         <v>654</v>
@@ -8159,13 +8171,13 @@
         <v>397244</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="M28" s="7">
         <v>875</v>
@@ -8174,13 +8186,13 @@
         <v>574358</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8192,31 +8204,31 @@
         <v>3153</v>
       </c>
       <c r="D29" s="7">
-        <v>3206522</v>
+        <v>3206523</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>577</v>
+        <v>362</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="H29" s="7">
         <v>4703</v>
       </c>
       <c r="I29" s="7">
-        <v>3405299</v>
+        <v>3405300</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="M29" s="7">
         <v>7856</v>
@@ -8225,13 +8237,13 @@
         <v>6611822</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8243,7 +8255,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8258,7 +8270,7 @@
         <v>5357</v>
       </c>
       <c r="I30" s="7">
-        <v>3802543</v>
+        <v>3802544</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8726F0C-E502-4338-884A-FBB04764E164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94527C60-AA09-4C01-8022-B0C9C727D944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A58E658-4575-4E6C-AA96-DAEBA7653C10}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1E955F8-B4B8-4A34-AF05-0F73941630DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="591">
   <si>
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,1636 +80,1642 @@
     <t>0,32%</t>
   </si>
   <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
   </si>
   <si>
     <t>96,6%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
   </si>
   <si>
     <t>3,77%</t>
@@ -2217,7 +2223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41AFB3D-B136-4128-A1AC-F77BFADA164D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3E403E-422D-4871-A582-016AA6C6E534}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2842,7 +2848,7 @@
         <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2863,13 @@
         <v>354277</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>373</v>
@@ -2872,13 +2878,13 @@
         <v>360055</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>731</v>
@@ -2887,13 +2893,13 @@
         <v>714333</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,7 +2955,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2961,13 +2967,13 @@
         <v>4443</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2976,13 +2982,13 @@
         <v>11497</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2991,13 +2997,13 @@
         <v>15939</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3018,13 @@
         <v>198865</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -3119,10 +3125,10 @@
         <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -3131,13 +3137,13 @@
         <v>7014</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3146,13 +3152,13 @@
         <v>9967</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3173,13 @@
         <v>267857</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>263</v>
@@ -3182,13 +3188,13 @@
         <v>271130</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -3197,13 +3203,13 @@
         <v>538988</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,7 +3265,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3271,13 +3277,13 @@
         <v>12411</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -3286,13 +3292,13 @@
         <v>24363</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -3301,13 +3307,13 @@
         <v>36774</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3328,13 @@
         <v>602616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
         <v>597</v>
@@ -3337,13 +3343,13 @@
         <v>613856</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7">
         <v>1182</v>
@@ -3352,13 +3358,13 @@
         <v>1216472</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,7 +3420,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3426,13 +3432,13 @@
         <v>28839</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -3441,13 +3447,13 @@
         <v>47970</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>75</v>
@@ -3456,13 +3462,13 @@
         <v>76809</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,10 +3486,10 @@
         <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>700</v>
@@ -3492,13 +3498,13 @@
         <v>735541</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>1405</v>
@@ -3507,13 +3513,13 @@
         <v>1449479</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3587,13 @@
         <v>64924</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="H28" s="7">
         <v>136</v>
@@ -3596,13 +3602,13 @@
         <v>140672</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M28" s="7">
         <v>203</v>
@@ -3611,13 +3617,13 @@
         <v>205596</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,16 +3635,16 @@
         <v>3146</v>
       </c>
       <c r="D29" s="7">
-        <v>3210602</v>
+        <v>3210601</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="H29" s="7">
         <v>3161</v>
@@ -3647,13 +3653,13 @@
         <v>3238526</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>6307</v>
@@ -3662,13 +3668,13 @@
         <v>6449127</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,7 +3686,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3724,7 +3730,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3748,7 +3754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC88C5A-66D5-45F3-B0C6-5C91381A7612}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C712FFA5-0A5F-490A-AFC3-106E41A76DC1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3765,7 +3771,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3870,39 +3876,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,39 +3921,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,39 +3966,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,10 +4015,10 @@
         <v>12138</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>40</v>
@@ -4024,13 +4030,13 @@
         <v>39983</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4039,13 +4045,13 @@
         <v>52121</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4066,13 @@
         <v>493389</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -4075,13 +4081,13 @@
         <v>482748</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>909</v>
@@ -4090,13 +4096,13 @@
         <v>976137</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4170,13 @@
         <v>4979</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4179,13 +4185,13 @@
         <v>8112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4194,13 +4200,13 @@
         <v>13091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4221,13 @@
         <v>318137</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>309</v>
@@ -4230,13 +4236,13 @@
         <v>332908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M11" s="7">
         <v>622</v>
@@ -4245,13 +4251,13 @@
         <v>651045</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,13 +4325,13 @@
         <v>13791</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -4334,13 +4340,13 @@
         <v>44806</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -4349,13 +4355,13 @@
         <v>58597</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4376,13 @@
         <v>651209</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>575</v>
@@ -4385,13 +4391,13 @@
         <v>622497</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>1185</v>
@@ -4400,13 +4406,13 @@
         <v>1273707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,7 +4468,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4474,13 +4480,13 @@
         <v>5396</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4489,13 +4495,13 @@
         <v>38191</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -4504,13 +4510,13 @@
         <v>43587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,13 +4531,13 @@
         <v>207222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -4540,13 +4546,13 @@
         <v>181400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>367</v>
@@ -4555,13 +4561,13 @@
         <v>388622</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4635,13 @@
         <v>1996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -4644,13 +4650,13 @@
         <v>10080</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -4659,13 +4665,13 @@
         <v>12076</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,10 +4686,10 @@
         <v>271985</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>61</v>
@@ -4695,13 +4701,13 @@
         <v>269060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>518</v>
@@ -4710,13 +4716,13 @@
         <v>541045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,7 +4778,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4784,13 +4790,13 @@
         <v>8023</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -4799,13 +4805,13 @@
         <v>18409</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -4814,13 +4820,13 @@
         <v>26432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4841,13 @@
         <v>653733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>164</v>
+        <v>261</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H23" s="7">
         <v>619</v>
@@ -4850,13 +4856,13 @@
         <v>675444</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M23" s="7">
         <v>1229</v>
@@ -4865,13 +4871,13 @@
         <v>1329177</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,7 +4933,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4939,13 +4945,13 @@
         <v>23699</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -4954,13 +4960,13 @@
         <v>63379</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -4969,13 +4975,13 @@
         <v>87077</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +4996,13 @@
         <v>752243</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H26" s="7">
         <v>698</v>
@@ -5005,13 +5011,13 @@
         <v>758141</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M26" s="7">
         <v>1392</v>
@@ -5020,13 +5026,13 @@
         <v>1510386</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5100,13 @@
         <v>70022</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H28" s="7">
         <v>205</v>
@@ -5109,13 +5115,13 @@
         <v>222959</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M28" s="7">
         <v>265</v>
@@ -5124,13 +5130,13 @@
         <v>292981</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5151,13 @@
         <v>3347919</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="H29" s="7">
         <v>3081</v>
@@ -5160,13 +5166,13 @@
         <v>3322200</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="M29" s="7">
         <v>6222</v>
@@ -5175,13 +5181,13 @@
         <v>6670119</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,7 +5243,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5261,7 +5267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CE1EAB-1B2B-4E77-BBBC-E080D5D83576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E47E40-495B-47F0-AC7B-292550A95EE6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5278,7 +5284,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5385,13 +5391,13 @@
         <v>6833</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -5400,13 +5406,13 @@
         <v>25319</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -5415,13 +5421,13 @@
         <v>32152</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5442,13 @@
         <v>286928</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>254</v>
@@ -5451,13 +5457,13 @@
         <v>263384</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>514</v>
@@ -5466,13 +5472,13 @@
         <v>550312</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +5546,13 @@
         <v>13496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>53</v>
+        <v>319</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5555,13 +5561,13 @@
         <v>36046</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -5570,13 +5576,13 @@
         <v>49542</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>211</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,13 +5597,13 @@
         <v>489079</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>60</v>
+        <v>329</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -5606,13 +5612,13 @@
         <v>487038</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M8" s="7">
         <v>915</v>
@@ -5621,13 +5627,13 @@
         <v>976117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5701,13 @@
         <v>2186</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5710,13 +5716,13 @@
         <v>15495</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -5725,13 +5731,13 @@
         <v>17681</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,10 +5752,10 @@
         <v>316379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>61</v>
@@ -5761,13 +5767,13 @@
         <v>320814</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>346</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>650</v>
@@ -5776,13 +5782,13 @@
         <v>637193</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5856,13 @@
         <v>8729</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -5865,13 +5871,13 @@
         <v>36979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>351</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5880,13 +5886,13 @@
         <v>45709</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5907,13 @@
         <v>361235</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>324</v>
@@ -5916,13 +5922,13 @@
         <v>350304</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
@@ -5931,10 +5937,10 @@
         <v>711538</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>363</v>
@@ -5993,7 +5999,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6023,10 +6029,10 @@
         <v>366</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>35</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -6035,13 +6041,13 @@
         <v>26750</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>370</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,10 +6065,10 @@
         <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -6071,13 +6077,13 @@
         <v>199372</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>44</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>409</v>
@@ -6086,13 +6092,13 @@
         <v>403058</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6166,13 @@
         <v>10250</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -6175,13 +6181,13 @@
         <v>30300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -6190,13 +6196,13 @@
         <v>40550</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>387</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6217,13 @@
         <v>252873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>235</v>
@@ -6226,13 +6232,13 @@
         <v>242815</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>483</v>
@@ -6241,13 +6247,13 @@
         <v>495688</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,7 +6309,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6315,13 +6321,13 @@
         <v>32422</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -6330,13 +6336,13 @@
         <v>57715</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -6345,13 +6351,13 @@
         <v>90137</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6372,13 @@
         <v>624136</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H23" s="7">
         <v>595</v>
@@ -6381,13 +6387,13 @@
         <v>633579</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M23" s="7">
         <v>1145</v>
@@ -6396,13 +6402,13 @@
         <v>1257715</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,7 +6464,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6470,13 +6476,13 @@
         <v>8573</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>410</v>
+        <v>202</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -6485,13 +6491,13 @@
         <v>45412</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>416</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -6500,13 +6506,13 @@
         <v>53985</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,13 +6527,13 @@
         <v>770010</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>418</v>
+        <v>212</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H26" s="7">
         <v>717</v>
@@ -6536,13 +6542,13 @@
         <v>780755</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>423</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M26" s="7">
         <v>1459</v>
@@ -6551,13 +6557,13 @@
         <v>1550765</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6631,13 @@
         <v>90024</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H28" s="7">
         <v>239</v>
@@ -6640,13 +6646,13 @@
         <v>266481</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M28" s="7">
         <v>325</v>
@@ -6655,13 +6661,13 @@
         <v>356505</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6682,13 @@
         <v>3304326</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H29" s="7">
         <v>3099</v>
@@ -6691,13 +6697,13 @@
         <v>3278061</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M29" s="7">
         <v>6244</v>
@@ -6706,13 +6712,13 @@
         <v>6582387</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,7 +6774,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -6792,7 +6798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF96B8F-38DA-47B5-9EEF-143E9FC03315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950F74AE-E1EB-427F-B8B2-C0EA625F9F51}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6809,7 +6815,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6916,13 +6922,13 @@
         <v>9723</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>444</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -6931,13 +6937,13 @@
         <v>19041</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -6946,13 +6952,13 @@
         <v>28764</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>450</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,13 +6973,13 @@
         <v>250575</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>452</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>499</v>
@@ -6982,13 +6988,13 @@
         <v>252362</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>815</v>
@@ -6997,13 +7003,13 @@
         <v>502936</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7077,13 @@
         <v>26329</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>216</v>
+        <v>462</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -7086,13 +7092,13 @@
         <v>62817</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
@@ -7101,13 +7107,13 @@
         <v>89146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7128,13 @@
         <v>491898</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>226</v>
+        <v>472</v>
       </c>
       <c r="H8" s="7">
         <v>625</v>
@@ -7137,13 +7143,13 @@
         <v>490399</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="M8" s="7">
         <v>983</v>
@@ -7152,13 +7158,13 @@
         <v>982297</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,13 +7232,13 @@
         <v>19461</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>473</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>474</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -7241,13 +7247,13 @@
         <v>40859</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -7256,13 +7262,13 @@
         <v>60320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,13 +7283,13 @@
         <v>302259</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>482</v>
+        <v>101</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>484</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
         <v>470</v>
@@ -7292,13 +7298,13 @@
         <v>332425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M11" s="7">
         <v>802</v>
@@ -7307,13 +7313,13 @@
         <v>634683</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,13 +7387,13 @@
         <v>20180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>492</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -7396,10 +7402,10 @@
         <v>38136</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>494</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>495</v>
@@ -7435,10 +7441,10 @@
         <v>499</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
         <v>534</v>
@@ -7447,13 +7453,13 @@
         <v>390064</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>502</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>503</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>805</v>
@@ -7462,13 +7468,13 @@
         <v>692124</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7524,7 +7530,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7536,13 +7542,13 @@
         <v>7297</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -7551,13 +7557,13 @@
         <v>24761</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -7566,13 +7572,13 @@
         <v>32058</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>511</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7593,13 @@
         <v>189451</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H17" s="7">
         <v>432</v>
@@ -7602,13 +7608,13 @@
         <v>207142</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M17" s="7">
         <v>699</v>
@@ -7617,7 +7623,7 @@
         <v>396593</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>370</v>
+        <v>520</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>521</v>
@@ -7834,7 +7840,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7879,10 +7885,10 @@
         <v>547</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>548</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,13 +7903,13 @@
         <v>591970</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H23" s="7">
         <v>827</v>
@@ -7912,13 +7918,13 @@
         <v>714420</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M23" s="7">
         <v>1389</v>
@@ -7927,13 +7933,13 @@
         <v>1306390</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>152</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7989,7 +7995,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8001,13 +8007,13 @@
         <v>32374</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H25" s="7">
         <v>102</v>
@@ -8016,13 +8022,13 @@
         <v>76669</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -8031,13 +8037,13 @@
         <v>109043</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>548</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8052,13 +8058,13 @@
         <v>827054</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H26" s="7">
         <v>958</v>
@@ -8067,13 +8073,13 @@
         <v>788362</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="M26" s="7">
         <v>1681</v>
@@ -8082,13 +8088,13 @@
         <v>1615416</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>558</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8156,13 +8162,13 @@
         <v>177114</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H28" s="7">
         <v>654</v>
@@ -8171,13 +8177,13 @@
         <v>397244</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M28" s="7">
         <v>875</v>
@@ -8186,13 +8192,13 @@
         <v>574358</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8207,13 +8213,13 @@
         <v>3206523</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H29" s="7">
         <v>4703</v>
@@ -8222,13 +8228,13 @@
         <v>3405300</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="M29" s="7">
         <v>7856</v>
@@ -8237,13 +8243,13 @@
         <v>6611822</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8299,7 +8305,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94527C60-AA09-4C01-8022-B0C9C727D944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A544978-52A2-483B-95B6-44432C27419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1E955F8-B4B8-4A34-AF05-0F73941630DA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD1CE3BF-B9FB-4AF5-9132-3922AEEDD711}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="585">
   <si>
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -80,25 +80,25 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>4,02%</t>
+    <t>3,81%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>98,48%</t>
   </si>
   <si>
-    <t>95,98%</t>
+    <t>96,19%</t>
   </si>
   <si>
     <t>99,68%</t>
@@ -116,19 +116,19 @@
     <t>97,47%</t>
   </si>
   <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1678 +140,1660 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>2,49%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>90,73%</t>
   </si>
   <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3E403E-422D-4871-A582-016AA6C6E534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD422D7F-B0F8-41B7-A0EA-C81DCF260170}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2693,7 +2675,7 @@
         <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2690,13 @@
         <v>317974</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>332</v>
@@ -2723,13 +2705,13 @@
         <v>332358</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>641</v>
@@ -2738,13 +2720,13 @@
         <v>650332</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,7 +2782,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2812,13 +2794,13 @@
         <v>4394</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -2827,13 +2809,13 @@
         <v>11401</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2842,13 +2824,13 @@
         <v>15794</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2845,13 @@
         <v>354277</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>373</v>
@@ -2878,13 +2860,13 @@
         <v>360055</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>731</v>
@@ -2893,10 +2875,10 @@
         <v>714333</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>83</v>
@@ -3125,10 +3107,10 @@
         <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -3137,13 +3119,13 @@
         <v>7014</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3152,13 +3134,13 @@
         <v>9967</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3155,13 @@
         <v>267857</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>263</v>
@@ -3188,13 +3170,13 @@
         <v>271130</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -3203,13 +3185,13 @@
         <v>538988</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,7 +3247,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3277,13 +3259,13 @@
         <v>12411</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -3292,13 +3274,13 @@
         <v>24363</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -3307,13 +3289,13 @@
         <v>36774</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3310,13 @@
         <v>602616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>597</v>
@@ -3343,13 +3325,13 @@
         <v>613856</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>1182</v>
@@ -3358,13 +3340,13 @@
         <v>1216472</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,7 +3402,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3435,10 +3417,10 @@
         <v>91</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -3447,13 +3429,13 @@
         <v>47970</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>75</v>
@@ -3462,13 +3444,13 @@
         <v>76809</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,10 +3468,10 @@
         <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>700</v>
@@ -3498,13 +3480,13 @@
         <v>735541</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>1405</v>
@@ -3513,13 +3495,13 @@
         <v>1449479</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3569,13 @@
         <v>64924</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>136</v>
@@ -3602,13 +3584,13 @@
         <v>140672</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M28" s="7">
         <v>203</v>
@@ -3617,13 +3599,13 @@
         <v>205596</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3620,13 @@
         <v>3210601</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>3161</v>
@@ -3653,28 +3635,28 @@
         <v>3238526</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>6307</v>
       </c>
       <c r="N29" s="7">
-        <v>6449127</v>
+        <v>6449126</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3698,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3730,7 +3712,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3754,7 +3736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C712FFA5-0A5F-490A-AFC3-106E41A76DC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9BE234-AE08-44A4-ADBF-CDDF8E9618B0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3771,7 +3753,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3876,39 +3858,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,39 +3903,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,39 +3948,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +3997,13 @@
         <v>12138</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -4030,13 +4012,13 @@
         <v>39983</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4045,13 +4027,13 @@
         <v>52121</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4048,13 @@
         <v>493389</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -4081,13 +4063,13 @@
         <v>482748</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>909</v>
@@ -4096,13 +4078,13 @@
         <v>976137</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4152,13 @@
         <v>4979</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4185,13 +4167,13 @@
         <v>8112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4200,13 +4182,13 @@
         <v>13091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4203,13 @@
         <v>318137</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>309</v>
@@ -4236,13 +4218,13 @@
         <v>332908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>622</v>
@@ -4251,13 +4233,13 @@
         <v>651045</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,7 +4295,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4325,13 +4307,13 @@
         <v>13791</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -4340,13 +4322,13 @@
         <v>44806</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -4355,13 +4337,13 @@
         <v>58597</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4358,13 @@
         <v>651209</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>575</v>
@@ -4391,13 +4373,13 @@
         <v>622497</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>1185</v>
@@ -4406,13 +4388,13 @@
         <v>1273707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,10 +4465,10 @@
         <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4495,13 +4477,13 @@
         <v>38191</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -4510,13 +4492,13 @@
         <v>43587</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4513,13 @@
         <v>207222</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -4546,13 +4528,13 @@
         <v>181400</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>367</v>
@@ -4561,13 +4543,13 @@
         <v>388622</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4617,13 @@
         <v>1996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -4650,13 +4632,13 @@
         <v>10080</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -4665,13 +4647,13 @@
         <v>12076</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4668,13 @@
         <v>271985</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -4701,13 +4683,13 @@
         <v>269060</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>518</v>
@@ -4716,7 +4698,7 @@
         <v>541045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>249</v>
@@ -4778,7 +4760,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4933,7 +4915,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5103,10 +5085,10 @@
         <v>287</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H28" s="7">
         <v>205</v>
@@ -5115,10 +5097,10 @@
         <v>222959</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>290</v>
@@ -5157,7 +5139,7 @@
         <v>295</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="H29" s="7">
         <v>3081</v>
@@ -5166,13 +5148,13 @@
         <v>3322200</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>297</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>284</v>
+        <v>97</v>
       </c>
       <c r="M29" s="7">
         <v>6222</v>
@@ -5243,7 +5225,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5267,7 +5249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E47E40-495B-47F0-AC7B-292550A95EE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C1F08D-5EB9-4670-ACDD-309A1F5C14FD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5394,10 +5376,10 @@
         <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -5406,13 +5388,13 @@
         <v>25319</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -5421,10 +5403,10 @@
         <v>32152</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>309</v>
@@ -5448,7 +5430,7 @@
         <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="H5" s="7">
         <v>254</v>
@@ -5457,13 +5439,13 @@
         <v>263384</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>514</v>
@@ -5472,13 +5454,13 @@
         <v>550312</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,10 +5561,10 @@
         <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5579,13 @@
         <v>489079</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -5612,13 +5594,13 @@
         <v>487038</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M8" s="7">
         <v>915</v>
@@ -5627,13 +5609,13 @@
         <v>976117</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>335</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5683,13 @@
         <v>2186</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5716,13 +5698,13 @@
         <v>15495</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -5731,13 +5713,13 @@
         <v>17681</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5734,13 @@
         <v>316379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
@@ -5767,13 +5749,13 @@
         <v>320814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>344</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="M11" s="7">
         <v>650</v>
@@ -5782,13 +5764,13 @@
         <v>637193</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>347</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,7 +5826,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5856,13 +5838,13 @@
         <v>8729</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -5871,13 +5853,13 @@
         <v>36979</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5886,13 +5868,13 @@
         <v>45709</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5889,13 @@
         <v>361235</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>357</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>324</v>
@@ -5922,13 +5904,13 @@
         <v>350304</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
@@ -5937,13 +5919,13 @@
         <v>711538</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,10 +5996,10 @@
         <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>364</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -6026,13 +6008,13 @@
         <v>19215</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -6041,13 +6023,13 @@
         <v>26750</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,10 +6047,10 @@
         <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>373</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -6077,13 +6059,13 @@
         <v>199372</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
         <v>409</v>
@@ -6092,13 +6074,13 @@
         <v>403058</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6148,13 @@
         <v>10250</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -6181,13 +6163,13 @@
         <v>30300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -6196,13 +6178,13 @@
         <v>40550</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6199,13 @@
         <v>252873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H20" s="7">
         <v>235</v>
@@ -6232,13 +6214,13 @@
         <v>242815</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M20" s="7">
         <v>483</v>
@@ -6247,13 +6229,13 @@
         <v>495688</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,7 +6291,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6321,13 +6303,13 @@
         <v>32422</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -6336,13 +6318,13 @@
         <v>57715</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -6351,13 +6333,13 @@
         <v>90137</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6354,13 @@
         <v>624136</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H23" s="7">
         <v>595</v>
@@ -6387,13 +6369,13 @@
         <v>633579</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M23" s="7">
         <v>1145</v>
@@ -6402,13 +6384,13 @@
         <v>1257715</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,7 +6446,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6476,13 +6458,13 @@
         <v>8573</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -6491,13 +6473,13 @@
         <v>45412</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>220</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -6506,13 +6488,13 @@
         <v>53985</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6509,13 @@
         <v>770010</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H26" s="7">
         <v>717</v>
@@ -6542,13 +6524,13 @@
         <v>780755</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>423</v>
+        <v>228</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M26" s="7">
         <v>1459</v>
@@ -6557,13 +6539,13 @@
         <v>1550765</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,10 +6616,10 @@
         <v>254</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H28" s="7">
         <v>239</v>
@@ -6646,13 +6628,13 @@
         <v>266481</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M28" s="7">
         <v>325</v>
@@ -6661,13 +6643,13 @@
         <v>356505</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,10 +6667,10 @@
         <v>263</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H29" s="7">
         <v>3099</v>
@@ -6697,13 +6679,13 @@
         <v>3278061</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M29" s="7">
         <v>6244</v>
@@ -6712,13 +6694,13 @@
         <v>6582387</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,7 +6756,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6798,7 +6780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950F74AE-E1EB-427F-B8B2-C0EA625F9F51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2E30CA-9257-4E14-AAA2-A2B455B24FCC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6815,7 +6797,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6922,13 +6904,13 @@
         <v>9723</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -6937,13 +6919,13 @@
         <v>19041</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -6952,13 +6934,13 @@
         <v>28764</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>451</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>452</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,13 +6955,13 @@
         <v>250575</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>499</v>
@@ -6988,13 +6970,13 @@
         <v>252362</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>815</v>
@@ -7003,13 +6985,13 @@
         <v>502936</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7059,13 @@
         <v>26329</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -7092,13 +7074,13 @@
         <v>62817</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
@@ -7107,13 +7089,13 @@
         <v>89146</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7110,13 @@
         <v>491898</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H8" s="7">
         <v>625</v>
@@ -7143,13 +7125,13 @@
         <v>490399</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M8" s="7">
         <v>983</v>
@@ -7158,13 +7140,13 @@
         <v>982297</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7232,10 +7214,10 @@
         <v>19461</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
+        <v>477</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>478</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>479</v>
@@ -7265,10 +7247,10 @@
         <v>483</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7265,13 @@
         <v>302259</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>101</v>
+        <v>485</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>486</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>487</v>
       </c>
       <c r="H11" s="7">
         <v>470</v>
@@ -7298,13 +7280,13 @@
         <v>332425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M11" s="7">
         <v>802</v>
@@ -7313,13 +7295,13 @@
         <v>634683</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,7 +7357,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7390,10 +7372,10 @@
         <v>493</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>494</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -7402,13 +7384,13 @@
         <v>38136</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>496</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -7417,13 +7399,13 @@
         <v>58316</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,13 +7420,13 @@
         <v>302060</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>502</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
         <v>534</v>
@@ -7453,13 +7435,13 @@
         <v>390064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>505</v>
       </c>
       <c r="M14" s="7">
         <v>805</v>
@@ -7468,13 +7450,13 @@
         <v>692124</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,13 +7524,13 @@
         <v>7297</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>506</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -7557,13 +7539,13 @@
         <v>24761</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -7572,13 +7554,13 @@
         <v>32058</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>512</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,13 +7575,13 @@
         <v>189451</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>516</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>432</v>
@@ -7608,13 +7590,13 @@
         <v>207142</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M17" s="7">
         <v>699</v>
@@ -7623,13 +7605,13 @@
         <v>396593</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>522</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,7 +7822,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7852,13 +7834,13 @@
         <v>35784</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H22" s="7">
         <v>131</v>
@@ -7867,13 +7849,13 @@
         <v>89464</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="M22" s="7">
         <v>168</v>
@@ -7882,13 +7864,13 @@
         <v>125248</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7885,13 @@
         <v>591970</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>550</v>
+        <v>440</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H23" s="7">
         <v>827</v>
@@ -7918,13 +7900,13 @@
         <v>714420</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M23" s="7">
         <v>1389</v>
@@ -7933,13 +7915,13 @@
         <v>1306390</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>558</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,7 +7977,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8007,13 +7989,13 @@
         <v>32374</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>559</v>
+        <v>242</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H25" s="7">
         <v>102</v>
@@ -8022,13 +8004,13 @@
         <v>76669</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -8037,13 +8019,13 @@
         <v>109043</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>566</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,13 +8040,13 @@
         <v>827054</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>567</v>
+        <v>249</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="H26" s="7">
         <v>958</v>
@@ -8073,13 +8055,13 @@
         <v>788362</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="M26" s="7">
         <v>1681</v>
@@ -8088,13 +8070,13 @@
         <v>1615416</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>573</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8162,13 +8144,13 @@
         <v>177114</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>353</v>
+        <v>569</v>
       </c>
       <c r="H28" s="7">
         <v>654</v>
@@ -8177,13 +8159,13 @@
         <v>397244</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="M28" s="7">
         <v>875</v>
@@ -8192,13 +8174,13 @@
         <v>574358</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8210,31 +8192,31 @@
         <v>3153</v>
       </c>
       <c r="D29" s="7">
-        <v>3206523</v>
+        <v>3206522</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>361</v>
+        <v>577</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="H29" s="7">
         <v>4703</v>
       </c>
       <c r="I29" s="7">
-        <v>3405300</v>
+        <v>3405299</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="M29" s="7">
         <v>7856</v>
@@ -8243,13 +8225,13 @@
         <v>6611822</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,7 +8243,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8276,7 +8258,7 @@
         <v>5357</v>
       </c>
       <c r="I30" s="7">
-        <v>3802544</v>
+        <v>3802543</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8305,7 +8287,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A544978-52A2-483B-95B6-44432C27419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F36A6B-3C57-4438-9090-9AFD87219F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD1CE3BF-B9FB-4AF5-9132-3922AEEDD711}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4CA07A1C-C73F-43AC-822F-EB16F2CEE42A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="590">
   <si>
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -563,7 +563,46 @@
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>2,4%</t>
@@ -620,9 +659,6 @@
     <t>3,44%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
     <t>1,12%</t>
   </si>
   <si>
@@ -644,9 +680,6 @@
     <t>96,56%</t>
   </si>
   <si>
-    <t>97,62%</t>
-  </si>
-  <si>
     <t>95,42%</t>
   </si>
   <si>
@@ -662,40 +695,58 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>2,54%</t>
@@ -1013,9 +1064,6 @@
     <t>9,42%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
     <t>6,33%</t>
   </si>
   <si>
@@ -1037,9 +1085,6 @@
     <t>95,32%</t>
   </si>
   <si>
-    <t>95,17%</t>
-  </si>
-  <si>
     <t>93,67%</t>
   </si>
   <si>
@@ -1133,9 +1178,6 @@
     <t>8,79%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
     <t>12,84%</t>
   </si>
   <si>
@@ -1157,9 +1199,6 @@
     <t>87,16%</t>
   </si>
   <si>
-    <t>94,28%</t>
-  </si>
-  <si>
     <t>93,78%</t>
   </si>
   <si>
@@ -1289,9 +1328,6 @@
     <t>7,54%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
     <t>2,51%</t>
   </si>
   <si>
@@ -1310,9 +1346,6 @@
     <t>96,06%</t>
   </si>
   <si>
-    <t>96,64%</t>
-  </si>
-  <si>
     <t>95,54%</t>
   </si>
   <si>
@@ -1322,9 +1355,6 @@
     <t>2,14%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
     <t>7,52%</t>
   </si>
   <si>
@@ -1343,9 +1373,6 @@
     <t>5,7%</t>
   </si>
   <si>
-    <t>96,67%</t>
-  </si>
-  <si>
     <t>97,86%</t>
   </si>
   <si>
@@ -1370,430 +1397,418 @@
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
 </sst>
 </file>
@@ -2205,7 +2220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD422D7F-B0F8-41B7-A0EA-C81DCF260170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1C0385-7A75-4D68-8285-98EA6E40126E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3632,7 +3647,7 @@
         <v>3161</v>
       </c>
       <c r="I29" s="7">
-        <v>3238526</v>
+        <v>3238525</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>166</v>
@@ -3683,7 +3698,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3736,7 +3751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9BE234-AE08-44A4-ADBF-CDDF8E9618B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05834E1-614F-4AF0-A6E5-561B02138518}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3854,43 +3869,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6607</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15937</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="N4" s="7">
+        <v>22544</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,43 +3920,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>273</v>
+      </c>
+      <c r="D5" s="7">
+        <v>284411</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>234</v>
+      </c>
+      <c r="I5" s="7">
+        <v>263392</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>507</v>
+      </c>
+      <c r="N5" s="7">
+        <v>547803</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,43 +3971,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="D6" s="7">
+        <v>291018</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="I6" s="7">
+        <v>279329</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>528</v>
+      </c>
+      <c r="N6" s="7">
+        <v>570347</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +4030,13 @@
         <v>12138</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -4012,13 +4045,13 @@
         <v>39983</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4027,13 +4060,13 @@
         <v>52121</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +4081,13 @@
         <v>493389</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -4063,13 +4096,13 @@
         <v>482748</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
         <v>909</v>
@@ -4078,10 +4111,10 @@
         <v>976137</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>133</v>
@@ -4152,13 +4185,13 @@
         <v>4979</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4167,13 +4200,13 @@
         <v>8112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4182,13 +4215,13 @@
         <v>13091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,10 +4236,10 @@
         <v>318137</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>63</v>
@@ -4218,13 +4251,13 @@
         <v>332908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>622</v>
@@ -4233,13 +4266,13 @@
         <v>651045</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,49 +4334,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>13791</v>
+        <v>7184</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>44806</v>
+        <v>28868</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>58597</v>
+        <v>36053</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,49 +4385,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>610</v>
+        <v>337</v>
       </c>
       <c r="D14" s="7">
-        <v>651209</v>
+        <v>366798</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
-        <v>575</v>
+        <v>341</v>
       </c>
       <c r="I14" s="7">
-        <v>622497</v>
+        <v>359106</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
-        <v>1185</v>
+        <v>678</v>
       </c>
       <c r="N14" s="7">
-        <v>1273707</v>
+        <v>725903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,10 +4436,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>623</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>665000</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4418,10 +4451,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>619</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>667303</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4433,10 +4466,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1242</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1332304</v>
+        <v>761956</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4462,13 +4495,13 @@
         <v>5396</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4477,13 +4510,13 @@
         <v>38191</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -4492,13 +4525,13 @@
         <v>43587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,10 +4546,10 @@
         <v>207222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>29</v>
@@ -4528,13 +4561,13 @@
         <v>181400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>367</v>
@@ -4543,13 +4576,13 @@
         <v>388622</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4650,13 @@
         <v>1996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -4632,13 +4665,13 @@
         <v>10080</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -4647,13 +4680,13 @@
         <v>12076</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,10 +4701,10 @@
         <v>271985</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>60</v>
@@ -4683,13 +4716,13 @@
         <v>269060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>518</v>
@@ -4698,13 +4731,13 @@
         <v>541045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4805,13 @@
         <v>8023</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -4787,13 +4820,13 @@
         <v>18409</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -4802,13 +4835,13 @@
         <v>26432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4856,13 @@
         <v>653733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
         <v>619</v>
@@ -4838,13 +4871,13 @@
         <v>675444</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="M23" s="7">
         <v>1229</v>
@@ -4853,13 +4886,13 @@
         <v>1329177</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4960,13 @@
         <v>23699</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -4942,13 +4975,13 @@
         <v>63379</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -4957,13 +4990,13 @@
         <v>87077</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,13 +5011,13 @@
         <v>752243</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="H26" s="7">
         <v>698</v>
@@ -4993,13 +5026,13 @@
         <v>758141</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M26" s="7">
         <v>1392</v>
@@ -5008,13 +5041,13 @@
         <v>1510386</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5115,13 @@
         <v>70022</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>205</v>
@@ -5097,13 +5130,13 @@
         <v>222959</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>88</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="M28" s="7">
         <v>265</v>
@@ -5112,13 +5145,13 @@
         <v>292981</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,10 +5166,10 @@
         <v>3347919</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>21</v>
@@ -5148,10 +5181,10 @@
         <v>3322200</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>97</v>
@@ -5163,13 +5196,13 @@
         <v>6670119</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,7 +5282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C1F08D-5EB9-4670-ACDD-309A1F5C14FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5133F185-BC6F-42E9-818B-FB7F67E358C4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5266,7 +5299,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5373,13 +5406,13 @@
         <v>6833</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -5388,13 +5421,13 @@
         <v>25319</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -5403,13 +5436,13 @@
         <v>32152</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,10 +5457,10 @@
         <v>286928</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>29</v>
@@ -5439,13 +5472,13 @@
         <v>263384</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>514</v>
@@ -5454,13 +5487,13 @@
         <v>550312</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5561,13 @@
         <v>13496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5543,13 +5576,13 @@
         <v>36046</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -5558,13 +5591,13 @@
         <v>49542</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5612,13 @@
         <v>489079</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -5594,13 +5627,13 @@
         <v>487038</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="M8" s="7">
         <v>915</v>
@@ -5609,10 +5642,10 @@
         <v>976117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>82</v>
@@ -5683,13 +5716,13 @@
         <v>2186</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5698,13 +5731,13 @@
         <v>15495</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -5713,13 +5746,13 @@
         <v>17681</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,10 +5767,10 @@
         <v>316379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>60</v>
@@ -5749,13 +5782,13 @@
         <v>320814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>650</v>
@@ -5764,13 +5797,13 @@
         <v>637193</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5871,13 @@
         <v>8729</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -5853,13 +5886,13 @@
         <v>36979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5868,13 +5901,13 @@
         <v>45709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,10 +5922,10 @@
         <v>361235</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>75</v>
@@ -5904,13 +5937,13 @@
         <v>350304</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
@@ -5919,13 +5952,13 @@
         <v>711538</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,7 +6032,7 @@
         <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -6008,13 +6041,13 @@
         <v>19215</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -6023,13 +6056,13 @@
         <v>26750</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,7 +6080,7 @@
         <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>59</v>
@@ -6059,13 +6092,13 @@
         <v>199372</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>372</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>409</v>
@@ -6074,13 +6107,13 @@
         <v>403058</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6181,13 @@
         <v>10250</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -6163,13 +6196,13 @@
         <v>30300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -6178,13 +6211,13 @@
         <v>40550</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6232,13 @@
         <v>252873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="H20" s="7">
         <v>235</v>
@@ -6214,13 +6247,13 @@
         <v>242815</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="M20" s="7">
         <v>483</v>
@@ -6229,13 +6262,13 @@
         <v>495688</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6336,13 @@
         <v>32422</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -6318,13 +6351,13 @@
         <v>57715</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -6333,13 +6366,13 @@
         <v>90137</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,13 +6387,13 @@
         <v>624136</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="H23" s="7">
         <v>595</v>
@@ -6369,13 +6402,13 @@
         <v>633579</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="M23" s="7">
         <v>1145</v>
@@ -6384,13 +6417,13 @@
         <v>1257715</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,13 +6491,13 @@
         <v>8573</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -6473,13 +6506,13 @@
         <v>45412</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -6488,13 +6521,13 @@
         <v>53985</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>416</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,13 +6542,13 @@
         <v>770010</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="H26" s="7">
         <v>717</v>
@@ -6524,13 +6557,13 @@
         <v>780755</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="M26" s="7">
         <v>1459</v>
@@ -6539,13 +6572,13 @@
         <v>1550765</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>423</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,13 +6646,13 @@
         <v>90024</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>427</v>
+        <v>225</v>
       </c>
       <c r="H28" s="7">
         <v>239</v>
@@ -6628,13 +6661,13 @@
         <v>266481</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="M28" s="7">
         <v>325</v>
@@ -6643,13 +6676,13 @@
         <v>356505</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,13 +6697,13 @@
         <v>3304326</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>434</v>
+        <v>235</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="H29" s="7">
         <v>3099</v>
@@ -6679,13 +6712,13 @@
         <v>3278061</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="M29" s="7">
         <v>6244</v>
@@ -6694,13 +6727,13 @@
         <v>6582387</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,7 +6813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2E30CA-9257-4E14-AAA2-A2B455B24FCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7154AF91-3B30-4187-A9A8-49A43F78D991}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6797,7 +6830,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6901,46 +6934,46 @@
         <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>9723</v>
+        <v>10623</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
       </c>
       <c r="I4" s="7">
-        <v>19041</v>
+        <v>19569</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>28764</v>
+        <v>30192</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>290</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6952,46 +6985,46 @@
         <v>316</v>
       </c>
       <c r="D5" s="7">
-        <v>250575</v>
+        <v>300820</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="H5" s="7">
         <v>499</v>
       </c>
       <c r="I5" s="7">
-        <v>252362</v>
+        <v>270066</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="M5" s="7">
         <v>815</v>
       </c>
       <c r="N5" s="7">
-        <v>502936</v>
+        <v>570885</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>297</v>
+        <v>468</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,7 +7036,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7018,7 +7051,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7033,7 +7066,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7056,46 +7089,46 @@
         <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>26329</v>
+        <v>25386</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
       </c>
       <c r="I7" s="7">
-        <v>62817</v>
+        <v>57855</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
       </c>
       <c r="N7" s="7">
-        <v>89146</v>
+        <v>83241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>467</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,46 +7140,46 @@
         <v>358</v>
       </c>
       <c r="D8" s="7">
-        <v>491898</v>
+        <v>492007</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="H8" s="7">
         <v>625</v>
       </c>
       <c r="I8" s="7">
-        <v>490399</v>
+        <v>455870</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="M8" s="7">
         <v>983</v>
       </c>
       <c r="N8" s="7">
-        <v>982297</v>
+        <v>947877</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>475</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,7 +7191,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7173,7 +7206,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7188,7 +7221,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071443</v>
+        <v>1031118</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7211,46 +7244,46 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>19461</v>
+        <v>18616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
       </c>
       <c r="I10" s="7">
-        <v>40859</v>
+        <v>37714</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>481</v>
+        <v>415</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>60320</v>
+        <v>56330</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,46 +7295,46 @@
         <v>332</v>
       </c>
       <c r="D11" s="7">
-        <v>302259</v>
+        <v>296944</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="H11" s="7">
         <v>470</v>
       </c>
       <c r="I11" s="7">
-        <v>332425</v>
+        <v>311414</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="M11" s="7">
         <v>802</v>
       </c>
       <c r="N11" s="7">
-        <v>634683</v>
+        <v>608358</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>454</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,7 +7346,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321720</v>
+        <v>315560</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7328,7 +7361,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7343,7 +7376,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>695003</v>
+        <v>664688</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7366,46 +7399,46 @@
         <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>20180</v>
+        <v>19395</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>501</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>38136</v>
+        <v>35125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>496</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
       </c>
       <c r="N13" s="7">
-        <v>58316</v>
+        <v>54520</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,46 +7450,46 @@
         <v>271</v>
       </c>
       <c r="D14" s="7">
-        <v>302060</v>
+        <v>293162</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>28</v>
+        <v>510</v>
       </c>
       <c r="H14" s="7">
         <v>534</v>
       </c>
       <c r="I14" s="7">
-        <v>390064</v>
+        <v>440262</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>505</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>805</v>
       </c>
       <c r="N14" s="7">
-        <v>692124</v>
+        <v>733424</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,7 +7501,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7483,7 +7516,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428200</v>
+        <v>475387</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7498,7 +7531,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750440</v>
+        <v>787944</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7521,46 +7554,46 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>7297</v>
+        <v>6620</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>509</v>
+        <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
       </c>
       <c r="I16" s="7">
-        <v>24761</v>
+        <v>22465</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
       </c>
       <c r="N16" s="7">
-        <v>32058</v>
+        <v>29085</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>521</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,46 +7605,46 @@
         <v>267</v>
       </c>
       <c r="D17" s="7">
-        <v>189451</v>
+        <v>172122</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>516</v>
+        <v>28</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
         <v>432</v>
       </c>
       <c r="I17" s="7">
-        <v>207142</v>
+        <v>186191</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="M17" s="7">
         <v>699</v>
       </c>
       <c r="N17" s="7">
-        <v>396593</v>
+        <v>358313</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,7 +7656,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7638,7 +7671,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7653,7 +7686,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7676,46 +7709,46 @@
         <v>47</v>
       </c>
       <c r="D19" s="7">
-        <v>25966</v>
+        <v>24764</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
       </c>
       <c r="I19" s="7">
-        <v>45497</v>
+        <v>42381</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="M19" s="7">
         <v>149</v>
       </c>
       <c r="N19" s="7">
-        <v>71463</v>
+        <v>67144</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>530</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,46 +7760,46 @@
         <v>324</v>
       </c>
       <c r="D20" s="7">
-        <v>251257</v>
+        <v>244872</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H20" s="7">
         <v>358</v>
       </c>
       <c r="I20" s="7">
-        <v>230125</v>
+        <v>214675</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="M20" s="7">
         <v>682</v>
       </c>
       <c r="N20" s="7">
-        <v>481382</v>
+        <v>459548</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>540</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,7 +7811,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7793,7 +7826,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7808,7 +7841,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7831,46 +7864,46 @@
         <v>37</v>
       </c>
       <c r="D22" s="7">
-        <v>35784</v>
+        <v>34763</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>433</v>
+        <v>546</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="H22" s="7">
         <v>131</v>
       </c>
       <c r="I22" s="7">
-        <v>89464</v>
+        <v>81358</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>543</v>
+        <v>90</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>544</v>
+        <v>458</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="M22" s="7">
         <v>168</v>
       </c>
       <c r="N22" s="7">
-        <v>125248</v>
+        <v>116121</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>209</v>
+        <v>551</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,46 +7915,46 @@
         <v>562</v>
       </c>
       <c r="D23" s="7">
-        <v>591970</v>
+        <v>589516</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>440</v>
+        <v>553</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="H23" s="7">
         <v>827</v>
       </c>
       <c r="I23" s="7">
-        <v>714420</v>
+        <v>767586</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>550</v>
+        <v>98</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>552</v>
+        <v>467</v>
       </c>
       <c r="M23" s="7">
         <v>1389</v>
       </c>
       <c r="N23" s="7">
-        <v>1306390</v>
+        <v>1357102</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>215</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7933,7 +7966,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7948,7 +7981,7 @@
         <v>958</v>
       </c>
       <c r="I24" s="7">
-        <v>803884</v>
+        <v>848944</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7963,7 +7996,7 @@
         <v>1557</v>
       </c>
       <c r="N24" s="7">
-        <v>1431638</v>
+        <v>1473223</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7986,46 +8019,46 @@
         <v>39</v>
       </c>
       <c r="D25" s="7">
-        <v>32374</v>
+        <v>27616</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>242</v>
+        <v>560</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>556</v>
+        <v>367</v>
       </c>
       <c r="H25" s="7">
         <v>102</v>
       </c>
       <c r="I25" s="7">
-        <v>76669</v>
+        <v>63452</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
       </c>
       <c r="N25" s="7">
-        <v>109043</v>
+        <v>91068</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>559</v>
+        <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>309</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8037,46 +8070,46 @@
         <v>723</v>
       </c>
       <c r="D26" s="7">
-        <v>827054</v>
+        <v>901104</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>249</v>
+        <v>567</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>561</v>
+        <v>376</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="H26" s="7">
         <v>958</v>
       </c>
       <c r="I26" s="7">
-        <v>788362</v>
+        <v>651399</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="M26" s="7">
         <v>1681</v>
       </c>
       <c r="N26" s="7">
-        <v>1615416</v>
+        <v>1552504</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>565</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>316</v>
+        <v>572</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8088,7 +8121,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8103,7 +8136,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8118,7 +8151,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8141,46 +8174,46 @@
         <v>221</v>
       </c>
       <c r="D28" s="7">
-        <v>177114</v>
+        <v>167783</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>569</v>
+        <v>35</v>
       </c>
       <c r="H28" s="7">
         <v>654</v>
       </c>
       <c r="I28" s="7">
-        <v>397244</v>
+        <v>359919</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="M28" s="7">
         <v>875</v>
       </c>
       <c r="N28" s="7">
-        <v>574358</v>
+        <v>527702</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8192,46 +8225,46 @@
         <v>3153</v>
       </c>
       <c r="D29" s="7">
-        <v>3206522</v>
+        <v>3290547</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>577</v>
+        <v>44</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="H29" s="7">
         <v>4703</v>
       </c>
       <c r="I29" s="7">
-        <v>3405299</v>
+        <v>3297462</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="M29" s="7">
         <v>7856</v>
       </c>
       <c r="N29" s="7">
-        <v>6611822</v>
+        <v>6588010</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8243,7 +8276,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383636</v>
+        <v>3458330</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8258,7 +8291,7 @@
         <v>5357</v>
       </c>
       <c r="I30" s="7">
-        <v>3802543</v>
+        <v>3657381</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8273,7 +8306,7 @@
         <v>8731</v>
       </c>
       <c r="N30" s="7">
-        <v>7186180</v>
+        <v>7115712</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
